--- a/biology/Zoologie/Dactylopsila/Dactylopsila.xlsx
+++ b/biology/Zoologie/Dactylopsila/Dactylopsila.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Dactylopsiles[1] ( Dactylopsila) forment un genre qui regroupe plusieurs espèces de marsupiaux de la famille des Petauridae. Ce sont des phalangers nains, appelés aussi en français phalangers à pelage rayé[2] ou trioks[2]. Pour les australiens ils font partie des « possums ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Dactylopsiles ( Dactylopsila) forment un genre qui regroupe plusieurs espèces de marsupiaux de la famille des Petauridae. Ce sont des phalangers nains, appelés aussi en français phalangers à pelage rayé ou trioks. Pour les australiens ils font partie des « possums ».
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Noms vernaculaires et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Liste alphabétique des noms vernaculaires attestés en français.
 Note : certaines espèces ont plusieurs noms et, les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide.
-Écureuil marsupial à 3 bandes - Dactylopsila trivirgata[1]
-Phalanger au pelage rayé - voir Écureuil marsupial à 3 bandes[2]
-Phalanger au pelage rayé des iles Fergusson - Dactylopsila tatei[2]
-Triok à longue queue - Dactylopsila megalura[2]
-Triok à longs doigts - Dactylopsila palpator[2]</t>
+Écureuil marsupial à 3 bandes - Dactylopsila trivirgata
+Phalanger au pelage rayé - voir Écureuil marsupial à 3 bandes
+Phalanger au pelage rayé des iles Fergusson - Dactylopsila tatei
+Triok à longue queue - Dactylopsila megalura
+Triok à longs doigts - Dactylopsila palpator</t>
         </is>
       </c>
     </row>
@@ -547,9 +561,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (1 févr. 2011)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (1 févr. 2011) :
 Dactylopsila megalura
 Dactylopsila palpator
 Dactylopsila tatei
@@ -558,10 +574,10 @@
 sous-espèce Dactylopsila trivirgata melampus
 sous-espèce Dactylopsila trivirgata picata
 sous-espèce Dactylopsila trivirgata trivirgata
-Selon NCBI  (1 févr. 2011)[4] :
+Selon NCBI  (1 févr. 2011) :
 Dactylopsila palpator
 Dactylopsila trivirgata
-Selon ITIS      (1 févr. 2011)[5] :
+Selon ITIS      (1 févr. 2011) :
 Dactylopsila megalura Rothschild &amp; Dollman, 1932
 Dactylopsila palpator Milne-Edwards, 1888
 Dactylopsila tatei Laurie, 1952
